--- a/exp/participant/participants.xlsx
+++ b/exp/participant/participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/participant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E51C88-BD44-1948-A582-D7AE6A3D3E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D49C29-5A33-6147-91B8-543E84C807BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="1160" windowWidth="23480" windowHeight="17260" xr2:uid="{96E51338-6689-0449-A9C7-0EBFC030EFF7}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{96E51338-6689-0449-A9C7-0EBFC030EFF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>rand_num</t>
   </si>
@@ -72,6 +72,57 @@
   </si>
   <si>
     <t>RE</t>
+  </si>
+  <si>
+    <t>qualtrics date</t>
+  </si>
+  <si>
+    <t>qualtrics note</t>
+  </si>
+  <si>
+    <t>Sep 5 7:06pm needs more clarification, already replied</t>
+  </si>
+  <si>
+    <t>Sep 8, 7:53AM</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Sep 13, 5:26PM</t>
+  </si>
+  <si>
+    <t>Sep 14 5:00pm needs more clarification, pending response</t>
+  </si>
+  <si>
+    <t>Sep 18, 8:26 AM</t>
+  </si>
+  <si>
+    <t>Oct. 4</t>
+  </si>
+  <si>
+    <t>Oct. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Oct.9</t>
+  </si>
+  <si>
+    <t>Oct.17 2:36pm</t>
+  </si>
+  <si>
+    <t>Oct. 20</t>
+  </si>
+  <si>
+    <t>Oct. 29</t>
+  </si>
+  <si>
+    <t>Nov 7, 12:05pm</t>
+  </si>
+  <si>
+    <t>Nov. 14</t>
   </si>
 </sst>
 </file>
@@ -81,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,6 +188,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -188,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -207,6 +264,8 @@
     <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,19 +580,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEAE74D-1ED4-1740-9A59-A2039BA4CFDE}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="92" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -553,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="11">
         <v>32</v>
@@ -571,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="1">
         <v>52</v>
@@ -589,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>1</v>
@@ -597,8 +657,14 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>61</v>
@@ -606,8 +672,14 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="P5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>92</v>
@@ -615,8 +687,14 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="P6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>35</v>
@@ -624,8 +702,11 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="P7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>5</v>
@@ -633,8 +714,11 @@
       <c r="C8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="P8" s="18">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3">
         <v>72</v>
@@ -642,8 +726,11 @@
       <c r="C9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="P9" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>45</v>
@@ -651,8 +738,11 @@
       <c r="C10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="P10" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3">
         <v>20</v>
@@ -660,8 +750,11 @@
       <c r="C11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="P11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>84</v>
@@ -669,8 +762,11 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="P12" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3">
         <v>46</v>
@@ -678,37 +774,49 @@
       <c r="C13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="P13" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>24</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>77</v>
       </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>19</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>31</v>
       </c>
       <c r="C17" s="4">
@@ -717,16 +825,22 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>75</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>-2</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>23</v>
       </c>
       <c r="C19" s="4">
@@ -735,76 +849,109 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>74</v>
       </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3">
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11">
         <v>86</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <v>-2</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>42</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>70</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
+      </c>
+      <c r="D23" s="17">
+        <v>31</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>47</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
+      <c r="C24" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <v>58</v>
       </c>
-      <c r="C25" s="4">
-        <v>1</v>
+      <c r="C25" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>62</v>
       </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="11">
         <v>70</v>
       </c>
-      <c r="C27" s="4">
-        <v>1</v>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -944,43 +1091,64 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="3">
+      <c r="B36" s="6">
         <v>21</v>
       </c>
       <c r="C36" s="5">
         <v>2</v>
+      </c>
+      <c r="D36" s="17">
+        <v>50</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="3">
+      <c r="B37" s="6">
         <v>73</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3">
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11">
         <v>74</v>
       </c>
-      <c r="C38" s="5">
-        <v>2</v>
+      <c r="C38" s="12">
+        <v>2</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="3">
+      <c r="B39" s="6">
         <v>91</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="3">
+      <c r="B40" s="6">
         <v>29</v>
       </c>
       <c r="C40" s="5">
@@ -989,56 +1157,89 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="3">
+      <c r="B41" s="6">
         <v>67</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="3">
+      <c r="B42" s="6">
         <v>33</v>
       </c>
       <c r="C42" s="5">
         <v>2</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="3">
+      <c r="B43" s="6">
         <v>54</v>
       </c>
       <c r="C43" s="5">
         <v>2</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="3">
+      <c r="B44" s="6">
         <v>27</v>
       </c>
       <c r="C44" s="5">
         <v>2</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="3">
+      <c r="B45" s="6">
         <v>6</v>
       </c>
       <c r="C45" s="5">
         <v>2</v>
+      </c>
+      <c r="D45">
+        <v>-16</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="3">
+      <c r="B46" s="6">
         <v>29</v>
       </c>
       <c r="C46" s="5">
         <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1052,14 +1253,14 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="3">
+      <c r="B48" s="6">
         <v>98</v>
       </c>
       <c r="C48" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3">
         <v>28</v>
@@ -1068,16 +1269,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="3">
+      <c r="B50" s="6">
         <v>64</v>
       </c>
       <c r="C50" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3">
         <v>36</v>
@@ -1086,34 +1293,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="3">
+      <c r="B52" s="6">
         <v>88</v>
       </c>
       <c r="C52" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="3">
+      <c r="B53" s="6">
         <v>40</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="3">
-        <v>58</v>
-      </c>
+      <c r="B54" s="6"/>
       <c r="C54" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3">
         <v>39</v>
@@ -1122,16 +1327,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="3">
+      <c r="B56" s="6">
         <v>25</v>
       </c>
       <c r="C56" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3">
         <v>31</v>
@@ -1140,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3">
         <v>92</v>
@@ -1149,7 +1354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="3">
         <v>58</v>
@@ -1158,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="3">
         <v>99</v>
@@ -1167,7 +1372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="3">
         <v>23</v>
@@ -1176,19 +1381,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3">
         <v>99</v>
